--- a/10WeekPBIonline2021/L2-PivotTest.xlsx
+++ b/10WeekPBIonline2021/L2-PivotTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\PBI Training\4-DA-100 Online 10 week ccourse\L2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC1A731E-C5AF-4F23-B7E8-D83EADB7FC68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529E0AAF-0F43-4A81-9EAE-0E891836B174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B8CDC1F6-B702-4632-BFAB-2327B0E2536F}"/>
   </bookViews>
@@ -42,12 +42,6 @@
     <t>Jan</t>
   </si>
   <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
     <t>Apr</t>
   </si>
   <si>
@@ -85,6 +79,12 @@
   </si>
   <si>
     <t>2021</t>
+  </si>
+  <si>
+    <t>fEB</t>
+  </si>
+  <si>
+    <t>maR</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,16 +466,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>12</v>
